--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3427,28 +3427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.6115185917204</v>
+        <v>288.7783575691409</v>
       </c>
       <c r="AB2" t="n">
-        <v>336.0565153524954</v>
+        <v>395.1192888280914</v>
       </c>
       <c r="AC2" t="n">
-        <v>303.9837531856349</v>
+        <v>357.4096584557424</v>
       </c>
       <c r="AD2" t="n">
-        <v>245611.5185917204</v>
+        <v>288778.3575691409</v>
       </c>
       <c r="AE2" t="n">
-        <v>336056.5153524954</v>
+        <v>395119.2888280914</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.105447643684417e-06</v>
+        <v>4.477013358119169e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.788411458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>303983.7531856349</v>
+        <v>357409.6584557424</v>
       </c>
     </row>
     <row r="3">
@@ -3533,28 +3533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.0585326228677</v>
+        <v>162.8733846632973</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.5295309302368</v>
+        <v>222.8505503628294</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.6319756976575</v>
+        <v>201.5820066089768</v>
       </c>
       <c r="AD3" t="n">
-        <v>137058.5326228677</v>
+        <v>162873.3846632973</v>
       </c>
       <c r="AE3" t="n">
-        <v>187529.5309302368</v>
+        <v>222850.5503628294</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.72376110413305e-06</v>
+        <v>6.810078285099103e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.435546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>169631.9756976575</v>
+        <v>201582.0066089768</v>
       </c>
     </row>
     <row r="4">
@@ -3639,28 +3639,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.4009551203893</v>
+        <v>139.3010585068394</v>
       </c>
       <c r="AB4" t="n">
-        <v>155.1601896927032</v>
+        <v>190.597853777945</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.3519189571681</v>
+        <v>172.4074621191996</v>
       </c>
       <c r="AD4" t="n">
-        <v>113400.9551203893</v>
+        <v>139301.0585068394</v>
       </c>
       <c r="AE4" t="n">
-        <v>155160.1896927032</v>
+        <v>190597.853777945</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.345392155864834e-06</v>
+        <v>7.706261651154165e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.686848958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>140351.9189571681</v>
+        <v>172407.4621191996</v>
       </c>
     </row>
     <row r="5">
@@ -3745,28 +3745,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>106.8090653710461</v>
+        <v>132.538576556904</v>
       </c>
       <c r="AB5" t="n">
-        <v>146.1408753240052</v>
+        <v>181.3451276344001</v>
       </c>
       <c r="AC5" t="n">
-        <v>132.1933952931285</v>
+        <v>164.037803172509</v>
       </c>
       <c r="AD5" t="n">
-        <v>106809.0653710461</v>
+        <v>132538.576556904</v>
       </c>
       <c r="AE5" t="n">
-        <v>146140.8753240052</v>
+        <v>181345.1276344002</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.677215039291502e-06</v>
+        <v>8.184638894013837e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.354817708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>132193.3952931285</v>
+        <v>164037.803172509</v>
       </c>
     </row>
     <row r="6">
@@ -3851,28 +3851,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>103.4115716745799</v>
+        <v>120.6783967740977</v>
       </c>
       <c r="AB6" t="n">
-        <v>141.4922745616591</v>
+        <v>165.1175064213687</v>
       </c>
       <c r="AC6" t="n">
-        <v>127.9884504631871</v>
+        <v>149.3589233524347</v>
       </c>
       <c r="AD6" t="n">
-        <v>103411.5716745799</v>
+        <v>120678.3967740977</v>
       </c>
       <c r="AE6" t="n">
-        <v>141492.2745616591</v>
+        <v>165117.5064213687</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.858438510515802e-06</v>
+        <v>8.445902323499098e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.188802083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>127988.4504631871</v>
+        <v>149358.9233524346</v>
       </c>
     </row>
     <row r="7">
@@ -3957,28 +3957,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>100.9110529212999</v>
+        <v>118.1778780208176</v>
       </c>
       <c r="AB7" t="n">
-        <v>138.0709544883213</v>
+        <v>161.6961863480309</v>
       </c>
       <c r="AC7" t="n">
-        <v>124.8936563757947</v>
+        <v>146.2641292650422</v>
       </c>
       <c r="AD7" t="n">
-        <v>100911.0529212999</v>
+        <v>118177.8780208176</v>
       </c>
       <c r="AE7" t="n">
-        <v>138070.9544883213</v>
+        <v>161696.1863480309</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.97495932045291e-06</v>
+        <v>8.61388622870137e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.087890625</v>
       </c>
       <c r="AH7" t="n">
-        <v>124893.6563757947</v>
+        <v>146264.1292650423</v>
       </c>
     </row>
     <row r="8">
@@ -4063,28 +4063,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>98.66006338109641</v>
+        <v>115.9268884806142</v>
       </c>
       <c r="AB8" t="n">
-        <v>134.9910512927667</v>
+        <v>158.6162831524763</v>
       </c>
       <c r="AC8" t="n">
-        <v>122.1076948185515</v>
+        <v>143.4781677077991</v>
       </c>
       <c r="AD8" t="n">
-        <v>98660.06338109641</v>
+        <v>115926.8884806142</v>
       </c>
       <c r="AE8" t="n">
-        <v>134991.0512927667</v>
+        <v>158616.2831524762</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.068325354056362e-06</v>
+        <v>8.748488716844214e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.009765625</v>
       </c>
       <c r="AH8" t="n">
-        <v>122107.6948185515</v>
+        <v>143478.1677077991</v>
       </c>
     </row>
     <row r="9">
@@ -4169,28 +4169,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>88.01381080448144</v>
+        <v>113.82857333636</v>
       </c>
       <c r="AB9" t="n">
-        <v>120.424378837934</v>
+        <v>155.7452758009782</v>
       </c>
       <c r="AC9" t="n">
-        <v>108.9312451383503</v>
+        <v>140.881165268443</v>
       </c>
       <c r="AD9" t="n">
-        <v>88013.81080448144</v>
+        <v>113828.57333636</v>
       </c>
       <c r="AE9" t="n">
-        <v>120424.378837934</v>
+        <v>155745.2758009782</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.164585734701522e-06</v>
+        <v>8.887263882119489e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.931640625</v>
       </c>
       <c r="AH9" t="n">
-        <v>108931.2451383503</v>
+        <v>140881.165268443</v>
       </c>
     </row>
     <row r="10">
@@ -4275,28 +4275,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>86.22170806801115</v>
+        <v>112.0364705998897</v>
       </c>
       <c r="AB10" t="n">
-        <v>117.9723448119038</v>
+        <v>153.2932417749479</v>
       </c>
       <c r="AC10" t="n">
-        <v>106.7132297983122</v>
+        <v>138.6631499284049</v>
       </c>
       <c r="AD10" t="n">
-        <v>86221.70806801115</v>
+        <v>112036.4705998897</v>
       </c>
       <c r="AE10" t="n">
-        <v>117972.3448119038</v>
+        <v>153293.2417749479</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.225460388610972e-06</v>
+        <v>8.975024704388623e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.8828125</v>
       </c>
       <c r="AH10" t="n">
-        <v>106713.2297983122</v>
+        <v>138663.1499284049</v>
       </c>
     </row>
     <row r="11">
@@ -4381,28 +4381,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>85.37148326077229</v>
+        <v>111.1862457926508</v>
       </c>
       <c r="AB11" t="n">
-        <v>116.8090297213689</v>
+        <v>152.1299266844131</v>
       </c>
       <c r="AC11" t="n">
-        <v>105.6609398672947</v>
+        <v>137.6108599973873</v>
       </c>
       <c r="AD11" t="n">
-        <v>85371.48326077229</v>
+        <v>111186.2457926508</v>
       </c>
       <c r="AE11" t="n">
-        <v>116809.0297213689</v>
+        <v>152129.9266844131</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.250575851650302e-06</v>
+        <v>9.011232773699049e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.86328125</v>
       </c>
       <c r="AH11" t="n">
-        <v>105660.9398672947</v>
+        <v>137610.8599973873</v>
       </c>
     </row>
     <row r="12">
@@ -4487,28 +4487,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>85.52373038458504</v>
+        <v>111.3384929164636</v>
       </c>
       <c r="AB12" t="n">
-        <v>117.0173409528385</v>
+        <v>152.3382379158827</v>
       </c>
       <c r="AC12" t="n">
-        <v>105.8493701671995</v>
+        <v>137.7992902972922</v>
       </c>
       <c r="AD12" t="n">
-        <v>85523.73038458504</v>
+        <v>111338.4929164636</v>
       </c>
       <c r="AE12" t="n">
-        <v>117017.3409528385</v>
+        <v>152338.2379158827</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.251229413885525e-06</v>
+        <v>9.012174991116049e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.86328125</v>
       </c>
       <c r="AH12" t="n">
-        <v>105849.3701671995</v>
+        <v>137799.2902972922</v>
       </c>
     </row>
   </sheetData>
@@ -4784,28 +4784,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.3631415716065</v>
+        <v>218.9475844455976</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.622027942813</v>
+        <v>299.5737443240352</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.4166975567766</v>
+        <v>270.9828466202286</v>
       </c>
       <c r="AD2" t="n">
-        <v>185363.1415716065</v>
+        <v>218947.5844455976</v>
       </c>
       <c r="AE2" t="n">
-        <v>253622.027942813</v>
+        <v>299573.7443240352</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.792829959429373e-06</v>
+        <v>5.552560378313138e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.291015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>229416.6975567766</v>
+        <v>270982.8466202286</v>
       </c>
     </row>
     <row r="3">
@@ -4890,28 +4890,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.6896171095237</v>
+        <v>135.9418877745325</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.4504174104478</v>
+        <v>186.0016881858513</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.9962021348318</v>
+        <v>168.249948120455</v>
       </c>
       <c r="AD3" t="n">
-        <v>110689.6171095237</v>
+        <v>135941.8877745325</v>
       </c>
       <c r="AE3" t="n">
-        <v>151450.4174104478</v>
+        <v>186001.6881858514</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.31058009267629e-06</v>
+        <v>7.774489477215902e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.921223958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>136996.2021348318</v>
+        <v>168249.948120455</v>
       </c>
     </row>
     <row r="4">
@@ -4996,28 +4996,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.6547965640068</v>
+        <v>125.7364750284233</v>
       </c>
       <c r="AB4" t="n">
-        <v>137.7203332350404</v>
+        <v>172.0381922355971</v>
       </c>
       <c r="AC4" t="n">
-        <v>124.5764979228268</v>
+        <v>155.6191086257989</v>
       </c>
       <c r="AD4" t="n">
-        <v>100654.7965640068</v>
+        <v>125736.4750284233</v>
       </c>
       <c r="AE4" t="n">
-        <v>137720.3332350405</v>
+        <v>172038.1922355971</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.853296014702154e-06</v>
+        <v>8.569005170657079e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.37109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>124576.4979228268</v>
+        <v>155619.1086257989</v>
       </c>
     </row>
     <row r="5">
@@ -5102,28 +5102,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>95.56138980853527</v>
+        <v>112.3963264270921</v>
       </c>
       <c r="AB5" t="n">
-        <v>130.7513094069607</v>
+        <v>153.7856123934448</v>
       </c>
       <c r="AC5" t="n">
-        <v>118.2725879478104</v>
+        <v>139.1085293861191</v>
       </c>
       <c r="AD5" t="n">
-        <v>95561.38980853527</v>
+        <v>112396.3264270921</v>
       </c>
       <c r="AE5" t="n">
-        <v>130751.3094069607</v>
+        <v>153785.6123934448</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.154933641412738e-06</v>
+        <v>9.010591308869712e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.107421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>118272.5879478104</v>
+        <v>139108.5293861191</v>
       </c>
     </row>
     <row r="6">
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>84.18543503805745</v>
+        <v>109.3523648484946</v>
       </c>
       <c r="AB6" t="n">
-        <v>115.1862262182966</v>
+        <v>149.6207298715025</v>
       </c>
       <c r="AC6" t="n">
-        <v>104.193014452936</v>
+        <v>135.3411374066203</v>
       </c>
       <c r="AD6" t="n">
-        <v>84185.43503805745</v>
+        <v>109352.3648484946</v>
       </c>
       <c r="AE6" t="n">
-        <v>115186.2262182966</v>
+        <v>149620.7298715025</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.311306141458987e-06</v>
+        <v>9.239514766367711e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.98046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>104193.014452936</v>
+        <v>135341.1374066203</v>
       </c>
     </row>
     <row r="7">
@@ -5314,28 +5314,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>81.61786651049441</v>
+        <v>106.7847963209315</v>
       </c>
       <c r="AB7" t="n">
-        <v>111.6731656857576</v>
+        <v>146.1076693389635</v>
       </c>
       <c r="AC7" t="n">
-        <v>101.01523548701</v>
+        <v>132.1633584406943</v>
       </c>
       <c r="AD7" t="n">
-        <v>81617.86651049441</v>
+        <v>106784.7963209315</v>
       </c>
       <c r="AE7" t="n">
-        <v>111673.1656857576</v>
+        <v>146107.6693389635</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.433100905238061e-06</v>
+        <v>9.417817718748797e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.886067708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>101015.23548701</v>
+        <v>132163.3584406943</v>
       </c>
     </row>
     <row r="8">
@@ -5420,28 +5420,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>80.21645979259864</v>
+        <v>105.3833896030358</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.7556991886326</v>
+        <v>144.1902028418385</v>
       </c>
       <c r="AC8" t="n">
-        <v>99.28076930118887</v>
+        <v>130.4288922548732</v>
       </c>
       <c r="AD8" t="n">
-        <v>80216.45979259865</v>
+        <v>105383.3896030358</v>
       </c>
       <c r="AE8" t="n">
-        <v>109755.6991886326</v>
+        <v>144190.2028418385</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.488927529714116e-06</v>
+        <v>9.499545796842587e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.84375</v>
       </c>
       <c r="AH8" t="n">
-        <v>99280.76930118886</v>
+        <v>130428.8922548732</v>
       </c>
     </row>
     <row r="9">
@@ -5526,28 +5526,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>80.07615405648306</v>
+        <v>105.2430838669202</v>
       </c>
       <c r="AB9" t="n">
-        <v>109.5637266906272</v>
+        <v>143.9982303438331</v>
       </c>
       <c r="AC9" t="n">
-        <v>99.1071183889579</v>
+        <v>130.2552413426422</v>
       </c>
       <c r="AD9" t="n">
-        <v>80076.15405648306</v>
+        <v>105243.0838669202</v>
       </c>
       <c r="AE9" t="n">
-        <v>109563.7266906272</v>
+        <v>143998.2303438331</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.487575327737188e-06</v>
+        <v>9.497566224016786e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.847005208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>99107.1183889579</v>
+        <v>130255.2413426422</v>
       </c>
     </row>
   </sheetData>
@@ -5823,28 +5823,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.91990167995213</v>
+        <v>111.2217678826714</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.2958882307749</v>
+        <v>152.1785295751032</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.8150174944007</v>
+        <v>137.6548242964046</v>
       </c>
       <c r="AD2" t="n">
-        <v>87919.90167995213</v>
+        <v>111221.7678826714</v>
       </c>
       <c r="AE2" t="n">
-        <v>120295.8882307749</v>
+        <v>152178.5295751032</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.01226989753067e-06</v>
+        <v>9.301723643479621e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.836588541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>108815.0174944007</v>
+        <v>137654.8242964046</v>
       </c>
     </row>
     <row r="3">
@@ -5929,28 +5929,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.60161216373653</v>
+        <v>90.81813751188416</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.49550813503251</v>
+        <v>124.2613823571632</v>
       </c>
       <c r="AC3" t="n">
-        <v>83.66786665690856</v>
+        <v>112.4020504269737</v>
       </c>
       <c r="AD3" t="n">
-        <v>67601.61216373653</v>
+        <v>90818.13751188415</v>
       </c>
       <c r="AE3" t="n">
-        <v>92495.50813503251</v>
+        <v>124261.3823571632</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.066963331558369e-06</v>
+        <v>1.093346456980554e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.964192708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>83667.86665690856</v>
+        <v>112402.0504269737</v>
       </c>
     </row>
     <row r="4">
@@ -6035,28 +6035,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.95418475401603</v>
+        <v>90.17071010216365</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.60966939057188</v>
+        <v>123.3755436127026</v>
       </c>
       <c r="AC4" t="n">
-        <v>82.86657111893649</v>
+        <v>111.6007548890016</v>
       </c>
       <c r="AD4" t="n">
-        <v>66954.18475401602</v>
+        <v>90170.71010216365</v>
       </c>
       <c r="AE4" t="n">
-        <v>91609.66939057189</v>
+        <v>123375.5436127026</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.149304000227607e-06</v>
+        <v>1.106085574778562e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.908854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>82866.5711189365</v>
+        <v>111600.7548890016</v>
       </c>
     </row>
   </sheetData>
@@ -6332,28 +6332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.2189068884206</v>
+        <v>140.3686442782257</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.0158356209797</v>
+        <v>192.0585717289152</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.8395874494842</v>
+        <v>173.7287711990601</v>
       </c>
       <c r="AD2" t="n">
-        <v>116218.9068884206</v>
+        <v>140368.6442782257</v>
       </c>
       <c r="AE2" t="n">
-        <v>159015.8356209797</v>
+        <v>192058.5717289152</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.114761216645154e-06</v>
+        <v>7.729907776723739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>143839.5874494842</v>
+        <v>173728.7711990601</v>
       </c>
     </row>
     <row r="3">
@@ -6438,28 +6438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.41758864752462</v>
+        <v>103.4606091795646</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.608601379321</v>
+        <v>141.5593698393612</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.1933243354361</v>
+        <v>128.0491422617541</v>
       </c>
       <c r="AD3" t="n">
-        <v>87417.58864752462</v>
+        <v>103460.6091795646</v>
       </c>
       <c r="AE3" t="n">
-        <v>119608.601379321</v>
+        <v>141559.3698393612</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.369969212521503e-06</v>
+        <v>9.626896050028609e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.270182291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>108193.3243354361</v>
+        <v>128049.1422617541</v>
       </c>
     </row>
     <row r="4">
@@ -6544,28 +6544,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.24659247003601</v>
+        <v>97.22564815069782</v>
       </c>
       <c r="AB4" t="n">
-        <v>100.2192192290624</v>
+        <v>133.0284210926025</v>
       </c>
       <c r="AC4" t="n">
-        <v>90.65443760442331</v>
+        <v>120.3323752901216</v>
       </c>
       <c r="AD4" t="n">
-        <v>73246.592470036</v>
+        <v>97225.64815069782</v>
       </c>
       <c r="AE4" t="n">
-        <v>100219.2192290624</v>
+        <v>133028.4210926025</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.823634004854012e-06</v>
+        <v>1.031251691437405e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.918619791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>90654.43760442331</v>
+        <v>120332.3752901217</v>
       </c>
     </row>
     <row r="5">
@@ -6650,28 +6650,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>71.71048436546256</v>
+        <v>95.68954004612436</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.11744835207935</v>
+        <v>130.9266502156195</v>
       </c>
       <c r="AC5" t="n">
-        <v>88.75325679008488</v>
+        <v>118.4311944757832</v>
       </c>
       <c r="AD5" t="n">
-        <v>71710.48436546256</v>
+        <v>95689.54004612437</v>
       </c>
       <c r="AE5" t="n">
-        <v>98117.44835207934</v>
+        <v>130926.6502156195</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.924780632417236e-06</v>
+        <v>1.046537920253834e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.847005208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>88753.25679008488</v>
+        <v>118431.1944757832</v>
       </c>
     </row>
   </sheetData>
@@ -6947,28 +6947,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.92378373883926</v>
+        <v>97.42962644967021</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.5140263154945</v>
+        <v>133.3075132001439</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.73023152330904</v>
+        <v>120.5848312386276</v>
       </c>
       <c r="AD2" t="n">
-        <v>74923.78373883927</v>
+        <v>97429.62644967021</v>
       </c>
       <c r="AE2" t="n">
-        <v>102514.0263154945</v>
+        <v>133307.5132001439</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.801344584776644e-06</v>
+        <v>1.07494434344207e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.358072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>92730.23152330905</v>
+        <v>120584.8312386276</v>
       </c>
     </row>
     <row r="3">
@@ -7053,28 +7053,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.06575595537667</v>
+        <v>86.18346873820983</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.23530249799026</v>
+        <v>117.9200240738695</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.95530169821031</v>
+        <v>106.6659024780832</v>
       </c>
       <c r="AD3" t="n">
-        <v>71065.75595537668</v>
+        <v>86183.46873820982</v>
       </c>
       <c r="AE3" t="n">
-        <v>97235.30249799025</v>
+        <v>117920.0240738695</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.230612161265542e-06</v>
+        <v>1.142789568370484e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.0390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>87955.3016982103</v>
+        <v>106665.9024780832</v>
       </c>
     </row>
   </sheetData>
@@ -7350,28 +7350,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.7493081484838</v>
+        <v>238.0348805561133</v>
       </c>
       <c r="AB2" t="n">
-        <v>267.8328392586203</v>
+        <v>325.6898249345035</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.2712489856067</v>
+        <v>294.6064451513915</v>
       </c>
       <c r="AD2" t="n">
-        <v>195749.3081484838</v>
+        <v>238034.8805561133</v>
       </c>
       <c r="AE2" t="n">
-        <v>267832.8392586203</v>
+        <v>325689.8249345035</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.622647914581723e-06</v>
+        <v>5.281408724211598e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.600260416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>242271.2489856067</v>
+        <v>294606.4451513916</v>
       </c>
     </row>
     <row r="3">
@@ -7456,28 +7456,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.1616517228711</v>
+        <v>148.4989483341712</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.5152053957552</v>
+        <v>203.1828124219545</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.4323507054073</v>
+        <v>183.7913299733292</v>
       </c>
       <c r="AD3" t="n">
-        <v>123161.6517228711</v>
+        <v>148498.9483341712</v>
       </c>
       <c r="AE3" t="n">
-        <v>168515.2053957552</v>
+        <v>203182.8124219545</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.166200118733832e-06</v>
+        <v>7.531732318859424e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.031901041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>152432.3507054073</v>
+        <v>183791.3299733292</v>
       </c>
     </row>
     <row r="4">
@@ -7562,28 +7562,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.8269305489623</v>
+        <v>129.0788863056908</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.0605868979291</v>
+        <v>176.6114268019308</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.5025238677151</v>
+        <v>159.7558801036981</v>
       </c>
       <c r="AD4" t="n">
-        <v>103826.9305489623</v>
+        <v>129078.8863056908</v>
       </c>
       <c r="AE4" t="n">
-        <v>142060.5868979291</v>
+        <v>176611.4268019308</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.718972906714634e-06</v>
+        <v>8.337612187338351e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.44921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>128502.5238677151</v>
+        <v>159755.8801036981</v>
       </c>
     </row>
     <row r="5">
@@ -7668,28 +7668,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>98.80121815426256</v>
+        <v>115.749672967694</v>
       </c>
       <c r="AB5" t="n">
-        <v>135.1841854807216</v>
+        <v>158.3738090695023</v>
       </c>
       <c r="AC5" t="n">
-        <v>122.2823965506736</v>
+        <v>143.2588350109896</v>
       </c>
       <c r="AD5" t="n">
-        <v>98801.21815426256</v>
+        <v>115749.672967694</v>
       </c>
       <c r="AE5" t="n">
-        <v>135184.1854807216</v>
+        <v>158373.8090695023</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.002490308965567e-06</v>
+        <v>8.750948320746938e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.192057291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>122282.3965506736</v>
+        <v>143258.8350109896</v>
       </c>
     </row>
     <row r="6">
@@ -7774,28 +7774,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>95.28436064869334</v>
+        <v>112.2328154621248</v>
       </c>
       <c r="AB6" t="n">
-        <v>130.3722658888012</v>
+        <v>153.5618894775819</v>
       </c>
       <c r="AC6" t="n">
-        <v>117.929719811033</v>
+        <v>138.906158271349</v>
       </c>
       <c r="AD6" t="n">
-        <v>95284.36064869334</v>
+        <v>112232.8154621248</v>
       </c>
       <c r="AE6" t="n">
-        <v>130372.2658888012</v>
+        <v>153561.8894775819</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.203977186662466e-06</v>
+        <v>9.044693277136225e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.022786458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>117929.719811033</v>
+        <v>138906.158271349</v>
       </c>
     </row>
     <row r="7">
@@ -7880,28 +7880,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>84.41024846226591</v>
+        <v>109.7474555650149</v>
       </c>
       <c r="AB7" t="n">
-        <v>115.4938258633668</v>
+        <v>150.1613104200176</v>
       </c>
       <c r="AC7" t="n">
-        <v>104.4712572195996</v>
+        <v>135.8301257062949</v>
       </c>
       <c r="AD7" t="n">
-        <v>84410.24846226591</v>
+        <v>109747.4555650149</v>
       </c>
       <c r="AE7" t="n">
-        <v>115493.8258633668</v>
+        <v>150161.3104200176</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.310703014991227e-06</v>
+        <v>9.200287398929127e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.938151041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>104471.2572195996</v>
+        <v>135830.1257062949</v>
       </c>
     </row>
     <row r="8">
@@ -7986,28 +7986,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>82.34233607603859</v>
+        <v>107.6795431787876</v>
       </c>
       <c r="AB8" t="n">
-        <v>112.6644169066762</v>
+        <v>147.3319014633271</v>
       </c>
       <c r="AC8" t="n">
-        <v>101.9118830826342</v>
+        <v>133.2707515693296</v>
       </c>
       <c r="AD8" t="n">
-        <v>82342.3360760386</v>
+        <v>107679.5431787876</v>
       </c>
       <c r="AE8" t="n">
-        <v>112664.4169066762</v>
+        <v>147331.9014633271</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.403166826798926e-06</v>
+        <v>9.335089122383785e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.866536458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>101911.8830826342</v>
+        <v>133270.7515693296</v>
       </c>
     </row>
     <row r="9">
@@ -8092,28 +8092,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>81.67761904111603</v>
+        <v>107.0148261438651</v>
       </c>
       <c r="AB9" t="n">
-        <v>111.7549217342496</v>
+        <v>146.4224062909006</v>
       </c>
       <c r="AC9" t="n">
-        <v>101.0891888529793</v>
+        <v>132.4480573396747</v>
       </c>
       <c r="AD9" t="n">
-        <v>81677.61904111604</v>
+        <v>107014.8261438651</v>
       </c>
       <c r="AE9" t="n">
-        <v>111754.9217342497</v>
+        <v>146422.4062909006</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.426330638866693e-06</v>
+        <v>9.368859326396234e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.847005208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>101089.1888529793</v>
+        <v>132448.0573396747</v>
       </c>
     </row>
     <row r="10">
@@ -8198,28 +8198,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>81.88891325164906</v>
+        <v>107.2261203543981</v>
       </c>
       <c r="AB10" t="n">
-        <v>112.0440237947435</v>
+        <v>146.7115083513944</v>
       </c>
       <c r="AC10" t="n">
-        <v>101.350699418577</v>
+        <v>132.7095679052724</v>
       </c>
       <c r="AD10" t="n">
-        <v>81888.91325164906</v>
+        <v>107226.1203543981</v>
       </c>
       <c r="AE10" t="n">
-        <v>112044.0237947435</v>
+        <v>146711.5083513944</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.423171937221087e-06</v>
+        <v>9.364254298576355e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.850260416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>101350.699418577</v>
+        <v>132709.5679052724</v>
       </c>
     </row>
   </sheetData>
@@ -8495,28 +8495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.9601004210959</v>
+        <v>83.83091389173434</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.35425170102276</v>
+        <v>114.7011547455284</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.34921434572429</v>
+        <v>103.7542375207266</v>
       </c>
       <c r="AD2" t="n">
-        <v>68960.10042109591</v>
+        <v>83830.91389173434</v>
       </c>
       <c r="AE2" t="n">
-        <v>94354.25170102276</v>
+        <v>114701.1547455284</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.206085071844623e-06</v>
+        <v>1.154584097774573e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.17578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>85349.21434572429</v>
+        <v>103754.2375207266</v>
       </c>
     </row>
     <row r="3">
@@ -8601,28 +8601,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.0395748461313</v>
+        <v>83.91038831676975</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.46299211552035</v>
+        <v>114.809895160026</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.44757672768037</v>
+        <v>103.8525999026827</v>
       </c>
       <c r="AD3" t="n">
-        <v>69039.57484613131</v>
+        <v>83910.38831676975</v>
       </c>
       <c r="AE3" t="n">
-        <v>94462.99211552035</v>
+        <v>114809.895160026</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.216852903671819e-06</v>
+        <v>1.156309357367159e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.166015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>85447.57672768037</v>
+        <v>103852.5999026827</v>
       </c>
     </row>
   </sheetData>
@@ -8898,28 +8898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.8235208094711</v>
+        <v>180.5857798967701</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.258662684901</v>
+        <v>247.0854309369828</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.9553797901275</v>
+        <v>223.5039441950093</v>
       </c>
       <c r="AD2" t="n">
-        <v>147823.5208094711</v>
+        <v>180585.7798967701</v>
       </c>
       <c r="AE2" t="n">
-        <v>202258.662684901</v>
+        <v>247085.4309369829</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.403665226047902e-06</v>
+        <v>6.538752353332848e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.356770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>182955.3797901275</v>
+        <v>223503.9441950093</v>
       </c>
     </row>
     <row r="3">
@@ -9004,28 +9004,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.96063998707535</v>
+        <v>123.6602784529938</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.4023134655709</v>
+        <v>169.1974484857674</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.4797067067935</v>
+        <v>153.0494814724431</v>
       </c>
       <c r="AD3" t="n">
-        <v>98960.63998707535</v>
+        <v>123660.2784529937</v>
       </c>
       <c r="AE3" t="n">
-        <v>135402.3134655709</v>
+        <v>169197.4484857674</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.800733293219701e-06</v>
+        <v>8.613179368799716e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.5859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>122479.7067067935</v>
+        <v>153049.4814724431</v>
       </c>
     </row>
     <row r="4">
@@ -9110,28 +9110,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.3623468299479</v>
+        <v>107.8288619824445</v>
       </c>
       <c r="AB4" t="n">
-        <v>125.0059935549583</v>
+        <v>147.5362060379711</v>
       </c>
       <c r="AC4" t="n">
-        <v>113.0755969771199</v>
+        <v>133.4555576021129</v>
       </c>
       <c r="AD4" t="n">
-        <v>91362.3468299479</v>
+        <v>107828.8619824445</v>
       </c>
       <c r="AE4" t="n">
-        <v>125005.9935549583</v>
+        <v>147536.2060379711</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.284368224942399e-06</v>
+        <v>9.331301407062338e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>113075.5969771199</v>
+        <v>133455.5576021129</v>
       </c>
     </row>
     <row r="5">
@@ -9216,28 +9216,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>78.9235327094671</v>
+        <v>103.5378303208138</v>
       </c>
       <c r="AB5" t="n">
-        <v>107.9866593135757</v>
+        <v>141.6650272115746</v>
       </c>
       <c r="AC5" t="n">
-        <v>97.68056410894374</v>
+        <v>128.1447158426546</v>
       </c>
       <c r="AD5" t="n">
-        <v>78923.53270946709</v>
+        <v>103537.8303208138</v>
       </c>
       <c r="AE5" t="n">
-        <v>107986.6593135757</v>
+        <v>141665.0272115746</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.548377170181147e-06</v>
+        <v>9.723313293381421e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>97680.56410894374</v>
+        <v>128144.7158426546</v>
       </c>
     </row>
     <row r="6">
@@ -9322,28 +9322,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>76.19104695196593</v>
+        <v>100.8053445633127</v>
       </c>
       <c r="AB6" t="n">
-        <v>104.2479517514007</v>
+        <v>137.9263196493997</v>
       </c>
       <c r="AC6" t="n">
-        <v>94.29867354919259</v>
+        <v>124.7628252829034</v>
       </c>
       <c r="AD6" t="n">
-        <v>76191.04695196592</v>
+        <v>100805.3445633127</v>
       </c>
       <c r="AE6" t="n">
-        <v>104247.9517514007</v>
+        <v>137926.3196493997</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.692173976012278e-06</v>
+        <v>9.936829002288724e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.840494791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>94298.67354919258</v>
+        <v>124762.8252829034</v>
       </c>
     </row>
     <row r="7">
@@ -9428,28 +9428,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>75.76661296501078</v>
+        <v>100.3809105763575</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.667222445743</v>
+        <v>137.3455903437419</v>
       </c>
       <c r="AC7" t="n">
-        <v>93.77336823340794</v>
+        <v>124.2375199671188</v>
       </c>
       <c r="AD7" t="n">
-        <v>75766.61296501078</v>
+        <v>100380.9105763575</v>
       </c>
       <c r="AE7" t="n">
-        <v>103667.222445743</v>
+        <v>137345.5903437419</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.722525550945493e-06</v>
+        <v>9.981896331850474e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.817708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>93773.36823340793</v>
+        <v>124237.5199671188</v>
       </c>
     </row>
   </sheetData>
@@ -9725,28 +9725,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.7740769807615</v>
+        <v>208.3959258798511</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.187649677981</v>
+        <v>285.136499568066</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.409740656158</v>
+        <v>257.9234722409642</v>
       </c>
       <c r="AD2" t="n">
-        <v>166774.0769807615</v>
+        <v>208395.9258798512</v>
       </c>
       <c r="AE2" t="n">
-        <v>228187.649677981</v>
+        <v>285136.499568066</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.978913330068566e-06</v>
+        <v>5.850763181357385e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.975260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>206409.740656158</v>
+        <v>257923.4722409642</v>
       </c>
     </row>
     <row r="3">
@@ -9831,28 +9831,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.520831005813</v>
+        <v>131.5963493707528</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.7465003494907</v>
+        <v>180.0559308301789</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.8366589126728</v>
+        <v>162.8716455018831</v>
       </c>
       <c r="AD3" t="n">
-        <v>106520.831005813</v>
+        <v>131596.3493707528</v>
       </c>
       <c r="AE3" t="n">
-        <v>145746.5003494907</v>
+        <v>180055.9308301789</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.475685985672431e-06</v>
+        <v>8.051681275775568e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.797526041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>131836.6589126728</v>
+        <v>162871.6455018831</v>
       </c>
     </row>
     <row r="4">
@@ -9937,28 +9937,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.28360473633981</v>
+        <v>122.1885309006874</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.107719849942</v>
+        <v>167.1837385557833</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.4041058853572</v>
+        <v>151.2279571919164</v>
       </c>
       <c r="AD4" t="n">
-        <v>97283.60473633981</v>
+        <v>122188.5309006874</v>
       </c>
       <c r="AE4" t="n">
-        <v>133107.719849942</v>
+        <v>167183.7385557833</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.007566308538635e-06</v>
+        <v>8.833780696337824e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.283203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>120404.1058853572</v>
+        <v>151227.9571919164</v>
       </c>
     </row>
     <row r="5">
@@ -10043,28 +10043,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>93.06484830336177</v>
+        <v>109.781950055206</v>
       </c>
       <c r="AB5" t="n">
-        <v>127.3354311799461</v>
+        <v>150.2085073032866</v>
       </c>
       <c r="AC5" t="n">
-        <v>115.1827163445658</v>
+        <v>135.8728181852659</v>
       </c>
       <c r="AD5" t="n">
-        <v>93064.84830336177</v>
+        <v>109781.950055206</v>
       </c>
       <c r="AE5" t="n">
-        <v>127335.4311799461</v>
+        <v>150208.5073032866</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.267607522302918e-06</v>
+        <v>9.216156343384485e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.065104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>115182.7163445658</v>
+        <v>135872.8181852659</v>
       </c>
     </row>
     <row r="6">
@@ -10149,28 +10149,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>81.41900346669502</v>
+        <v>106.4091809770632</v>
       </c>
       <c r="AB6" t="n">
-        <v>111.4010724960131</v>
+        <v>145.5937358545036</v>
       </c>
       <c r="AC6" t="n">
-        <v>100.7691104894094</v>
+        <v>131.6984740466809</v>
       </c>
       <c r="AD6" t="n">
-        <v>81419.00346669502</v>
+        <v>106409.1809770632</v>
       </c>
       <c r="AE6" t="n">
-        <v>111401.0724960131</v>
+        <v>145593.7358545036</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.444673455634728e-06</v>
+        <v>9.476521613364513e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.925130208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>100769.1104894094</v>
+        <v>131698.4740466809</v>
       </c>
     </row>
     <row r="7">
@@ -10255,28 +10255,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>79.06210565305743</v>
+        <v>104.0522831634256</v>
       </c>
       <c r="AB7" t="n">
-        <v>108.1762609284027</v>
+        <v>142.3689242868932</v>
       </c>
       <c r="AC7" t="n">
-        <v>97.85207041175926</v>
+        <v>128.7814339690308</v>
       </c>
       <c r="AD7" t="n">
-        <v>79062.10565305743</v>
+        <v>104052.2831634256</v>
       </c>
       <c r="AE7" t="n">
-        <v>108176.2609284027</v>
+        <v>142368.9242868932</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.553584605156551e-06</v>
+        <v>9.636669194073594e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.84375</v>
       </c>
       <c r="AH7" t="n">
-        <v>97852.07041175925</v>
+        <v>128781.4339690308</v>
       </c>
     </row>
     <row r="8">
@@ -10361,28 +10361,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>78.53617066410729</v>
+        <v>103.5263481744754</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.4566534739073</v>
+        <v>141.6493168323978</v>
       </c>
       <c r="AC8" t="n">
-        <v>97.20114128274527</v>
+        <v>128.1305048400168</v>
       </c>
       <c r="AD8" t="n">
-        <v>78536.17066410728</v>
+        <v>103526.3481744754</v>
       </c>
       <c r="AE8" t="n">
-        <v>107456.6534739073</v>
+        <v>141649.3168323978</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.58371311473779e-06</v>
+        <v>9.680971434395085e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.820963541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>97201.14128274527</v>
+        <v>128130.5048400168</v>
       </c>
     </row>
   </sheetData>
@@ -10658,28 +10658,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.7965817858893</v>
+        <v>273.5359656269459</v>
       </c>
       <c r="AB2" t="n">
-        <v>315.7860652258837</v>
+        <v>374.2639757259066</v>
       </c>
       <c r="AC2" t="n">
-        <v>285.6478863693451</v>
+        <v>338.5447471654143</v>
       </c>
       <c r="AD2" t="n">
-        <v>230796.5817858893</v>
+        <v>273535.965626946</v>
       </c>
       <c r="AE2" t="n">
-        <v>315786.0652258837</v>
+        <v>374263.9757259066</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.267959152094784e-06</v>
+        <v>4.727993454156445e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>285647.8863693451</v>
+        <v>338544.7471654143</v>
       </c>
     </row>
     <row r="3">
@@ -10764,28 +10764,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.4201792417894</v>
+        <v>158.0809135207561</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.1831312045395</v>
+        <v>216.2932799167028</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.8912674545508</v>
+        <v>195.6505528510396</v>
       </c>
       <c r="AD3" t="n">
-        <v>132420.1792417894</v>
+        <v>158080.9135207561</v>
       </c>
       <c r="AE3" t="n">
-        <v>181183.1312045395</v>
+        <v>216293.2799167028</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.861093944361242e-06</v>
+        <v>7.032897071019718e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.302083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>163891.2674545508</v>
+        <v>195650.5528510396</v>
       </c>
     </row>
     <row r="4">
@@ -10870,28 +10870,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.9945663160088</v>
+        <v>135.740551940996</v>
       </c>
       <c r="AB4" t="n">
-        <v>150.4994182512843</v>
+        <v>185.7262116160968</v>
       </c>
       <c r="AC4" t="n">
-        <v>136.1359650006829</v>
+        <v>168.0007626478839</v>
       </c>
       <c r="AD4" t="n">
-        <v>109994.5663160088</v>
+        <v>135740.551940996</v>
       </c>
       <c r="AE4" t="n">
-        <v>150499.4182512843</v>
+        <v>185726.2116160968</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.474612712720472e-06</v>
+        <v>7.920519157405097e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.595703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>136135.9650006829</v>
+        <v>168000.7626478839</v>
       </c>
     </row>
     <row r="5">
@@ -10976,28 +10976,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>104.4035615447391</v>
+        <v>129.978954969134</v>
       </c>
       <c r="AB5" t="n">
-        <v>142.8495588655146</v>
+        <v>177.8429404554802</v>
       </c>
       <c r="AC5" t="n">
-        <v>129.2161974580435</v>
+        <v>160.8698598225935</v>
       </c>
       <c r="AD5" t="n">
-        <v>104403.5615447391</v>
+        <v>129978.9549691341</v>
       </c>
       <c r="AE5" t="n">
-        <v>142849.5588655146</v>
+        <v>177842.9404554802</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.770690338929728e-06</v>
+        <v>8.348876126843416e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.309244791666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>129216.1974580435</v>
+        <v>160869.8598225935</v>
       </c>
     </row>
     <row r="6">
@@ -11082,28 +11082,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>100.6076193296717</v>
+        <v>117.7716992548809</v>
       </c>
       <c r="AB6" t="n">
-        <v>137.6557832617106</v>
+        <v>161.140434641134</v>
       </c>
       <c r="AC6" t="n">
-        <v>124.5181085083551</v>
+        <v>145.761417721049</v>
       </c>
       <c r="AD6" t="n">
-        <v>100607.6193296717</v>
+        <v>117771.6992548809</v>
       </c>
       <c r="AE6" t="n">
-        <v>137655.7832617106</v>
+        <v>161140.434641134</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.969832187963035e-06</v>
+        <v>8.636989078951325e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.130208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>124518.1085083551</v>
+        <v>145761.417721049</v>
       </c>
     </row>
     <row r="7">
@@ -11188,28 +11188,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>98.21430825999842</v>
+        <v>115.3783881852076</v>
       </c>
       <c r="AB7" t="n">
-        <v>134.3811494707527</v>
+        <v>157.865800850176</v>
       </c>
       <c r="AC7" t="n">
-        <v>121.5560011704277</v>
+        <v>142.7993103831217</v>
       </c>
       <c r="AD7" t="n">
-        <v>98214.30825999842</v>
+        <v>115378.3881852076</v>
       </c>
       <c r="AE7" t="n">
-        <v>134381.1494707527</v>
+        <v>157865.800850176</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.086343345384224e-06</v>
+        <v>8.805554218228071e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.032552083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>121556.0011704277</v>
+        <v>142799.3103831217</v>
       </c>
     </row>
     <row r="8">
@@ -11294,28 +11294,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>87.58885666718002</v>
+        <v>113.2495014375956</v>
       </c>
       <c r="AB8" t="n">
-        <v>119.8429378396251</v>
+        <v>154.95296408224</v>
       </c>
       <c r="AC8" t="n">
-        <v>108.4052960528622</v>
+        <v>140.1644706681245</v>
       </c>
       <c r="AD8" t="n">
-        <v>87588.85666718002</v>
+        <v>113249.5014375956</v>
       </c>
       <c r="AE8" t="n">
-        <v>119842.9378396251</v>
+        <v>154952.96408224</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.174526668892828e-06</v>
+        <v>8.933135426226705e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.9609375</v>
       </c>
       <c r="AH8" t="n">
-        <v>108405.2960528622</v>
+        <v>140164.4706681245</v>
       </c>
     </row>
     <row r="9">
@@ -11400,28 +11400,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>85.14847226825582</v>
+        <v>110.8091170386714</v>
       </c>
       <c r="AB9" t="n">
-        <v>116.5038962428574</v>
+        <v>151.6139224854723</v>
       </c>
       <c r="AC9" t="n">
-        <v>105.3849278997147</v>
+        <v>137.1441025149769</v>
       </c>
       <c r="AD9" t="n">
-        <v>85148.47226825582</v>
+        <v>110809.1170386714</v>
       </c>
       <c r="AE9" t="n">
-        <v>116503.8962428574</v>
+        <v>151613.9224854723</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.278144426825566e-06</v>
+        <v>9.083046749606103e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.879557291666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>105384.9278997147</v>
+        <v>137144.1025149769</v>
       </c>
     </row>
     <row r="10">
@@ -11506,28 +11506,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>84.45681946442923</v>
+        <v>110.1174642348448</v>
       </c>
       <c r="AB10" t="n">
-        <v>115.5575463630942</v>
+        <v>150.6675726057091</v>
       </c>
       <c r="AC10" t="n">
-        <v>104.5288963242653</v>
+        <v>136.2880709395276</v>
       </c>
       <c r="AD10" t="n">
-        <v>84456.81946442922</v>
+        <v>110117.4642348448</v>
       </c>
       <c r="AE10" t="n">
-        <v>115557.5463630942</v>
+        <v>150667.5726057091</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.294331760489899e-06</v>
+        <v>9.106466138907881e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.866536458333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>104528.8963242653</v>
+        <v>136288.0709395276</v>
       </c>
     </row>
     <row r="11">
@@ -11612,28 +11612,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>84.43008455636644</v>
+        <v>110.090729326782</v>
       </c>
       <c r="AB11" t="n">
-        <v>115.5209664824218</v>
+        <v>150.6309927250367</v>
       </c>
       <c r="AC11" t="n">
-        <v>104.4958075760641</v>
+        <v>136.2549821913263</v>
       </c>
       <c r="AD11" t="n">
-        <v>84430.08455636643</v>
+        <v>110090.729326782</v>
       </c>
       <c r="AE11" t="n">
-        <v>115520.9664824218</v>
+        <v>150630.9927250367</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.288685016188387e-06</v>
+        <v>9.098296584500284e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.873046875</v>
       </c>
       <c r="AH11" t="n">
-        <v>104495.8075760641</v>
+        <v>136254.9821913263</v>
       </c>
     </row>
   </sheetData>
@@ -11909,28 +11909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.6334319718593</v>
+        <v>155.931328050083</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.1607159458961</v>
+        <v>213.3521222427114</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.0162546346227</v>
+        <v>192.9900951375122</v>
       </c>
       <c r="AD2" t="n">
-        <v>123633.4319718593</v>
+        <v>155931.328050083</v>
       </c>
       <c r="AE2" t="n">
-        <v>169160.7159458961</v>
+        <v>213352.1222427114</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.859029852117134e-06</v>
+        <v>7.296730368060147e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.819661458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>153016.2546346227</v>
+        <v>192990.0951375122</v>
       </c>
     </row>
     <row r="3">
@@ -12015,28 +12015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.24769042633704</v>
+        <v>115.3645259253413</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.8491156052545</v>
+        <v>157.8468338946673</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.9336912387561</v>
+        <v>142.7821536072264</v>
       </c>
       <c r="AD3" t="n">
-        <v>91247.69042633704</v>
+        <v>115364.5259253413</v>
       </c>
       <c r="AE3" t="n">
-        <v>124849.1156052545</v>
+        <v>157846.8338946673</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.169086366809766e-06</v>
+        <v>9.264022079690142e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.37109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>112933.6912387561</v>
+        <v>142782.1536072264</v>
       </c>
     </row>
     <row r="4">
@@ -12121,28 +12121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.92520056690157</v>
+        <v>101.1169085418503</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.1984060510124</v>
+        <v>138.3526152300672</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.108593263021</v>
+        <v>125.1484358116618</v>
       </c>
       <c r="AD4" t="n">
-        <v>84925.20056690156</v>
+        <v>101116.9085418503</v>
       </c>
       <c r="AE4" t="n">
-        <v>116198.4060510124</v>
+        <v>138352.6152300672</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.618396959748181e-06</v>
+        <v>9.93874488402862e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.006510416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>105108.593263021</v>
+        <v>125148.4358116618</v>
       </c>
     </row>
     <row r="5">
@@ -12227,28 +12227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>73.33522143687095</v>
+        <v>97.53730828189582</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.34048529152</v>
+        <v>133.4548482335821</v>
       </c>
       <c r="AC5" t="n">
-        <v>90.76413020407796</v>
+        <v>120.7181048232604</v>
       </c>
       <c r="AD5" t="n">
-        <v>73335.22143687095</v>
+        <v>97537.30828189582</v>
       </c>
       <c r="AE5" t="n">
-        <v>100340.48529152</v>
+        <v>133454.848233582</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.832514380312306e-06</v>
+        <v>1.026028172008659e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.850260416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>90764.13020407796</v>
+        <v>120718.1048232605</v>
       </c>
     </row>
     <row r="6">
@@ -12333,28 +12333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>73.2351612296011</v>
+        <v>97.43724807462596</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.2035785015886</v>
+        <v>133.3179414436507</v>
       </c>
       <c r="AC6" t="n">
-        <v>90.64028960602772</v>
+        <v>120.5942642252102</v>
       </c>
       <c r="AD6" t="n">
-        <v>73235.1612296011</v>
+        <v>97437.24807462595</v>
       </c>
       <c r="AE6" t="n">
-        <v>100203.5785015886</v>
+        <v>133317.9414436507</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.856033697549734e-06</v>
+        <v>1.029560031691464e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.833984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>90640.28960602773</v>
+        <v>120594.2642252102</v>
       </c>
     </row>
   </sheetData>
@@ -12630,28 +12630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.2067315227374</v>
+        <v>125.6960561529579</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.843759112113</v>
+        <v>171.9828893470304</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.4972670144391</v>
+        <v>155.5690837672989</v>
       </c>
       <c r="AD2" t="n">
-        <v>102206.7315227374</v>
+        <v>125696.0561529579</v>
       </c>
       <c r="AE2" t="n">
-        <v>139843.759112113</v>
+        <v>171982.8893470304</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.697314401702582e-06</v>
+        <v>8.738237440968376e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.061197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>126497.2670144391</v>
+        <v>155569.0837672989</v>
       </c>
     </row>
     <row r="3">
@@ -12736,28 +12736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.36161929468493</v>
+        <v>95.07809278739664</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.5860687064865</v>
+        <v>130.0900411010794</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.22276671067176</v>
+        <v>117.6744301609463</v>
       </c>
       <c r="AD3" t="n">
-        <v>79361.61929468493</v>
+        <v>95078.09278739664</v>
       </c>
       <c r="AE3" t="n">
-        <v>108586.0687064865</v>
+        <v>130090.0411010794</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.837116666731671e-06</v>
+        <v>1.048640545932477e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.048828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>98222.76671067176</v>
+        <v>117674.4301609463</v>
       </c>
     </row>
     <row r="4">
@@ -12842,28 +12842,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.5933783723933</v>
+        <v>92.08261349406267</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.85248641535317</v>
+        <v>125.9914941807222</v>
       </c>
       <c r="AC4" t="n">
-        <v>84.89533683468684</v>
+        <v>113.96704280632</v>
       </c>
       <c r="AD4" t="n">
-        <v>68593.3783723933</v>
+        <v>92082.61349406267</v>
       </c>
       <c r="AE4" t="n">
-        <v>93852.48641535317</v>
+        <v>125991.4941807222</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.057610656588885e-06</v>
+        <v>1.082458739941623e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.892578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>84895.33683468684</v>
+        <v>113967.04280632</v>
       </c>
     </row>
   </sheetData>
@@ -23160,28 +23160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.53101095702776</v>
+        <v>104.5357912273017</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.554326085708</v>
+        <v>143.0304813507585</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.9077377715966</v>
+        <v>129.3798529552221</v>
       </c>
       <c r="AD2" t="n">
-        <v>81531.01095702776</v>
+        <v>104535.7912273017</v>
       </c>
       <c r="AE2" t="n">
-        <v>111554.326085708</v>
+        <v>143030.4813507585</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.373379242421477e-06</v>
+        <v>9.958279349048207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.602213541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>100907.7377715966</v>
+        <v>129379.8529552221</v>
       </c>
     </row>
     <row r="3">
@@ -23266,28 +23266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.1004704373195</v>
+        <v>88.01990985302179</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.07333568236504</v>
+        <v>120.4327238252179</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.5723015400734</v>
+        <v>108.9387936917601</v>
       </c>
       <c r="AD3" t="n">
-        <v>65100.4704373195</v>
+        <v>88019.90985302179</v>
       </c>
       <c r="AE3" t="n">
-        <v>89073.33568236504</v>
+        <v>120432.7238252179</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.192597427423907e-06</v>
+        <v>1.123829160373634e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.964192708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>80572.3015400734</v>
+        <v>108938.7936917601</v>
       </c>
     </row>
     <row r="4">
@@ -23372,28 +23372,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.33366027625902</v>
+        <v>88.25309969196131</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.39239630761158</v>
+        <v>120.7517844504645</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.8609114670509</v>
+        <v>109.2274036187376</v>
       </c>
       <c r="AD4" t="n">
-        <v>65333.66027625902</v>
+        <v>88253.09969196131</v>
       </c>
       <c r="AE4" t="n">
-        <v>89392.39630761158</v>
+        <v>120751.7844504645</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.192378003777194e-06</v>
+        <v>1.123794875861656e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.964192708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>80860.9114670509</v>
+        <v>109227.4036187376</v>
       </c>
     </row>
   </sheetData>
@@ -23669,28 +23669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.45112556629797</v>
+        <v>88.15580184319957</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.92136161653136</v>
+        <v>120.6186572413106</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.24395447280415</v>
+        <v>109.1069818835801</v>
       </c>
       <c r="AD2" t="n">
-        <v>66451.12556629798</v>
+        <v>88155.80184319957</v>
       </c>
       <c r="AE2" t="n">
-        <v>90921.36161653136</v>
+        <v>120618.6572413106</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.118951194330883e-06</v>
+        <v>1.160158485407363e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.384114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>82243.95447280415</v>
+        <v>109106.9818835801</v>
       </c>
     </row>
   </sheetData>
@@ -23966,28 +23966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.645995514674</v>
+        <v>189.8347780715583</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.3299617966676</v>
+        <v>259.7403182767234</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.8746110568457</v>
+        <v>234.9510668482949</v>
       </c>
       <c r="AD2" t="n">
-        <v>156645.995514674</v>
+        <v>189834.7780715583</v>
       </c>
       <c r="AE2" t="n">
-        <v>214329.9617966676</v>
+        <v>259740.3182767234</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.193036442538425e-06</v>
+        <v>6.194711553901055e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.646484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>193874.6110568457</v>
+        <v>234951.0668482949</v>
       </c>
     </row>
     <row r="3">
@@ -24072,28 +24072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.7453533854597</v>
+        <v>127.636940303123</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.5807253070087</v>
+        <v>174.6384926670505</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.1638981900329</v>
+        <v>157.9712400336198</v>
       </c>
       <c r="AD3" t="n">
-        <v>102745.3533854597</v>
+        <v>127636.940303123</v>
       </c>
       <c r="AE3" t="n">
-        <v>140580.7253070087</v>
+        <v>174638.4926670505</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.630499815368538e-06</v>
+        <v>8.318392348478045e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.693359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>127163.8981900329</v>
+        <v>157971.2400336198</v>
       </c>
     </row>
     <row r="4">
@@ -24178,28 +24178,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.66061281044816</v>
+        <v>111.2550935974414</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.5188265787021</v>
+        <v>152.2241272882783</v>
       </c>
       <c r="AC4" t="n">
-        <v>117.1577315508799</v>
+        <v>137.6960702278311</v>
       </c>
       <c r="AD4" t="n">
-        <v>94660.61281044816</v>
+        <v>111255.0935974414</v>
       </c>
       <c r="AE4" t="n">
-        <v>129518.8265787021</v>
+        <v>152224.1272882783</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.123966209918904e-06</v>
+        <v>9.047430127585072e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.234374999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>117157.7315508799</v>
+        <v>137696.070227831</v>
       </c>
     </row>
     <row r="5">
@@ -24284,28 +24284,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>90.10161699016844</v>
+        <v>106.6960977771616</v>
       </c>
       <c r="AB5" t="n">
-        <v>123.2810073686978</v>
+        <v>145.986308078274</v>
       </c>
       <c r="AC5" t="n">
-        <v>111.5152410514422</v>
+        <v>132.0535797283934</v>
       </c>
       <c r="AD5" t="n">
-        <v>90101.61699016843</v>
+        <v>106696.0977771616</v>
       </c>
       <c r="AE5" t="n">
-        <v>123281.0073686978</v>
+        <v>145986.308078274</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.398125148739144e-06</v>
+        <v>9.452467281253796e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.009765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>111515.2410514422</v>
+        <v>132053.5797283934</v>
       </c>
     </row>
     <row r="6">
@@ -24390,28 +24390,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>78.88681539636838</v>
+        <v>103.69306145946</v>
       </c>
       <c r="AB6" t="n">
-        <v>107.9364210659405</v>
+        <v>141.8774213037847</v>
       </c>
       <c r="AC6" t="n">
-        <v>97.63512052915301</v>
+        <v>128.3368393408012</v>
       </c>
       <c r="AD6" t="n">
-        <v>78886.81539636837</v>
+        <v>103693.06145946</v>
       </c>
       <c r="AE6" t="n">
-        <v>107936.4210659405</v>
+        <v>141877.4213037847</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.567997336046943e-06</v>
+        <v>9.703433190046378e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.879557291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>97635.12052915302</v>
+        <v>128336.8393408012</v>
       </c>
     </row>
     <row r="7">
@@ -24496,28 +24496,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>77.15463702972376</v>
+        <v>101.9608830928154</v>
       </c>
       <c r="AB7" t="n">
-        <v>105.5663782063823</v>
+        <v>139.5073784442265</v>
       </c>
       <c r="AC7" t="n">
-        <v>95.49127123373427</v>
+        <v>126.1929900453824</v>
       </c>
       <c r="AD7" t="n">
-        <v>77154.63702972376</v>
+        <v>101960.8830928154</v>
       </c>
       <c r="AE7" t="n">
-        <v>105566.3782063823</v>
+        <v>139507.3784442265</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.647467976717896e-06</v>
+        <v>9.820841589116299e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.820963541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>95491.27123373427</v>
+        <v>126192.9900453824</v>
       </c>
     </row>
     <row r="8">
@@ -24602,28 +24602,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>77.33199990006825</v>
+        <v>102.1382459631599</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.8090539102851</v>
+        <v>139.7500541481293</v>
       </c>
       <c r="AC8" t="n">
-        <v>95.71078630905419</v>
+        <v>126.4125051207023</v>
       </c>
       <c r="AD8" t="n">
-        <v>77331.99990006826</v>
+        <v>102138.2459631599</v>
       </c>
       <c r="AE8" t="n">
-        <v>105809.0539102851</v>
+        <v>139750.0541481293</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.647861883239189e-06</v>
+        <v>9.82142353904973e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.820963541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>95710.78630905418</v>
+        <v>126412.5051207023</v>
       </c>
     </row>
   </sheetData>
@@ -24899,28 +24899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.1382439391115</v>
+        <v>250.6978172880725</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.7839277686213</v>
+        <v>343.0158136205026</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.6045493992207</v>
+        <v>310.2788657943822</v>
       </c>
       <c r="AD2" t="n">
-        <v>208138.2439391115</v>
+        <v>250697.8172880725</v>
       </c>
       <c r="AE2" t="n">
-        <v>284783.9277686213</v>
+        <v>343015.8136205027</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.444221816500989e-06</v>
+        <v>5.001592204875528e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.968098958333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>257604.5493992207</v>
+        <v>310278.8657943822</v>
       </c>
     </row>
     <row r="3">
@@ -25005,28 +25005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.7564757822074</v>
+        <v>153.2581729583064</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.8020463830669</v>
+        <v>209.6945935148651</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.1191844125287</v>
+        <v>189.6816358180766</v>
       </c>
       <c r="AD3" t="n">
-        <v>127756.4757822074</v>
+        <v>153258.1729583064</v>
       </c>
       <c r="AE3" t="n">
-        <v>174802.0463830669</v>
+        <v>209694.5935148651</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.009897963365565e-06</v>
+        <v>7.275218593861375e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.165364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>158119.1844125287</v>
+        <v>189681.6358180766</v>
       </c>
     </row>
     <row r="4">
@@ -25111,28 +25111,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.2116673088868</v>
+        <v>132.7986158310064</v>
       </c>
       <c r="AB4" t="n">
-        <v>146.6917330569026</v>
+        <v>181.7009248413499</v>
       </c>
       <c r="AC4" t="n">
-        <v>132.691679937132</v>
+        <v>164.3596435933921</v>
       </c>
       <c r="AD4" t="n">
-        <v>107211.6673088868</v>
+        <v>132798.6158310064</v>
       </c>
       <c r="AE4" t="n">
-        <v>146691.7330569026</v>
+        <v>181700.9248413499</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.575947918880881e-06</v>
+        <v>8.097218800558786e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.540364583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>132691.679937132</v>
+        <v>164359.6435933922</v>
       </c>
     </row>
     <row r="5">
@@ -25217,28 +25217,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.6522170134343</v>
+        <v>118.7102722033984</v>
       </c>
       <c r="AB5" t="n">
-        <v>139.0850478970312</v>
+        <v>162.4246315562111</v>
       </c>
       <c r="AC5" t="n">
-        <v>125.8109661328666</v>
+        <v>146.9230526849333</v>
       </c>
       <c r="AD5" t="n">
-        <v>101652.2170134343</v>
+        <v>118710.2722033984</v>
       </c>
       <c r="AE5" t="n">
-        <v>139085.0478970312</v>
+        <v>162424.6315562111</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.881510510123013e-06</v>
+        <v>8.540947327895863e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.250651041666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>125810.9661328666</v>
+        <v>146923.0526849333</v>
       </c>
     </row>
     <row r="6">
@@ -25323,28 +25323,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>97.97913805527031</v>
+        <v>115.0371932452344</v>
       </c>
       <c r="AB6" t="n">
-        <v>134.0593792216666</v>
+        <v>157.3989628808466</v>
       </c>
       <c r="AC6" t="n">
-        <v>121.264940222307</v>
+        <v>142.3770267743737</v>
       </c>
       <c r="AD6" t="n">
-        <v>97979.1380552703</v>
+        <v>115037.1932452344</v>
       </c>
       <c r="AE6" t="n">
-        <v>134059.3792216666</v>
+        <v>157398.9628808466</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.081929203509156e-06</v>
+        <v>8.831989144584033e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>121264.940222307</v>
+        <v>142377.0267743737</v>
       </c>
     </row>
     <row r="7">
@@ -25429,28 +25429,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>87.16300918371303</v>
+        <v>112.664616851261</v>
       </c>
       <c r="AB7" t="n">
-        <v>119.2602745256808</v>
+        <v>154.1526991879306</v>
       </c>
       <c r="AC7" t="n">
-        <v>107.8782413078275</v>
+        <v>139.4405819321488</v>
       </c>
       <c r="AD7" t="n">
-        <v>87163.00918371303</v>
+        <v>112664.616851261</v>
       </c>
       <c r="AE7" t="n">
-        <v>119260.2745256808</v>
+        <v>154152.6991879306</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.191533176454704e-06</v>
+        <v>8.991152638085376e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.990234375</v>
       </c>
       <c r="AH7" t="n">
-        <v>107878.2413078275</v>
+        <v>139440.5819321488</v>
       </c>
     </row>
     <row r="8">
@@ -25535,28 +25535,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>84.99274927175489</v>
+        <v>110.4943569393028</v>
       </c>
       <c r="AB8" t="n">
-        <v>116.2908291690312</v>
+        <v>151.183253831281</v>
       </c>
       <c r="AC8" t="n">
-        <v>105.1921956483728</v>
+        <v>136.7545362726942</v>
       </c>
       <c r="AD8" t="n">
-        <v>84992.74927175489</v>
+        <v>110494.3569393028</v>
       </c>
       <c r="AE8" t="n">
-        <v>116290.8291690312</v>
+        <v>151183.253831281</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.286428391126174e-06</v>
+        <v>9.128956528562728e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.915364583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>105192.1956483728</v>
+        <v>136754.5362726942</v>
       </c>
     </row>
     <row r="9">
@@ -25641,28 +25641,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>83.43669059651522</v>
+        <v>108.9382982640632</v>
       </c>
       <c r="AB9" t="n">
-        <v>114.1617610411056</v>
+        <v>149.0541857033554</v>
       </c>
       <c r="AC9" t="n">
-        <v>103.2663227944099</v>
+        <v>134.8286634187312</v>
       </c>
       <c r="AD9" t="n">
-        <v>83436.69059651523</v>
+        <v>108938.2982640632</v>
       </c>
       <c r="AE9" t="n">
-        <v>114161.7610411056</v>
+        <v>149054.1857033554</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.348679651950658e-06</v>
+        <v>9.219355880715872e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.866536458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>103266.3227944099</v>
+        <v>134828.6634187312</v>
       </c>
     </row>
     <row r="10">
@@ -25747,28 +25747,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>82.72760024011194</v>
+        <v>108.2292079076599</v>
       </c>
       <c r="AB10" t="n">
-        <v>113.1915523326164</v>
+        <v>148.0839769948662</v>
       </c>
       <c r="AC10" t="n">
-        <v>102.3887094433621</v>
+        <v>133.9510500676834</v>
       </c>
       <c r="AD10" t="n">
-        <v>82727.60024011193</v>
+        <v>108229.2079076599</v>
       </c>
       <c r="AE10" t="n">
-        <v>113191.5523326164</v>
+        <v>148083.9769948662</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.375440102488013e-06</v>
+        <v>9.258216577830487e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.84375</v>
       </c>
       <c r="AH10" t="n">
-        <v>102388.7094433621</v>
+        <v>133951.0500676834</v>
       </c>
     </row>
   </sheetData>
@@ -26044,28 +26044,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.83452280741312</v>
+        <v>85.18151471819615</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.34121028546025</v>
+        <v>116.5491063805958</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.00548775999539</v>
+        <v>105.4258232453601</v>
       </c>
       <c r="AD2" t="n">
-        <v>63834.52280741312</v>
+        <v>85181.51471819615</v>
       </c>
       <c r="AE2" t="n">
-        <v>87341.21028546026</v>
+        <v>116549.1063805958</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.736165634268198e-06</v>
+        <v>1.12287867780312e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.891927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>79005.48775999539</v>
+        <v>105425.8232453601</v>
       </c>
     </row>
   </sheetData>
@@ -26341,28 +26341,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.0634002806932</v>
+        <v>132.80577186212</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.2253558016199</v>
+        <v>181.7107160388213</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.9834972830562</v>
+        <v>164.3685003327189</v>
       </c>
       <c r="AD2" t="n">
-        <v>109063.4002806932</v>
+        <v>132805.77186212</v>
       </c>
       <c r="AE2" t="n">
-        <v>149225.3558016199</v>
+        <v>181710.7160388213</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.394587468898633e-06</v>
+        <v>8.210058390374503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.305338541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>134983.4972830562</v>
+        <v>164368.5003327189</v>
       </c>
     </row>
     <row r="3">
@@ -26447,28 +26447,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.41772849053697</v>
+        <v>99.30289995071954</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.1358162511571</v>
+        <v>135.8706086472725</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.2428541388003</v>
+        <v>122.9033084536101</v>
       </c>
       <c r="AD3" t="n">
-        <v>83417.72849053697</v>
+        <v>99302.89995071954</v>
       </c>
       <c r="AE3" t="n">
-        <v>114135.8162511571</v>
+        <v>135870.6086472725</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.599817968372432e-06</v>
+        <v>1.00443066682248e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>103242.8541388003</v>
+        <v>122903.3084536101</v>
       </c>
     </row>
     <row r="4">
@@ -26553,28 +26553,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.33278616573521</v>
+        <v>94.07506823861088</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.23242089545838</v>
+        <v>128.7176586631113</v>
       </c>
       <c r="AC4" t="n">
-        <v>87.04813370827057</v>
+        <v>116.4330259767066</v>
       </c>
       <c r="AD4" t="n">
-        <v>70332.78616573522</v>
+        <v>94075.06823861088</v>
       </c>
       <c r="AE4" t="n">
-        <v>96232.42089545837</v>
+        <v>128717.6586631113</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.974701926195231e-06</v>
+        <v>1.061484504601261e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.876302083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>87048.13370827057</v>
+        <v>116433.0259767066</v>
       </c>
     </row>
     <row r="5">
@@ -26659,28 +26659,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>70.2459251912707</v>
+        <v>93.98820726414635</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.11357387816032</v>
+        <v>128.5988116458133</v>
       </c>
       <c r="AC5" t="n">
-        <v>86.94062928350058</v>
+        <v>116.3255215519367</v>
       </c>
       <c r="AD5" t="n">
-        <v>70245.9251912707</v>
+        <v>93988.20726414636</v>
       </c>
       <c r="AE5" t="n">
-        <v>96113.57387816033</v>
+        <v>128598.8116458133</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.005323894314014e-06</v>
+        <v>1.066144882206274e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.856770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>86940.62928350059</v>
+        <v>116325.5215519367</v>
       </c>
     </row>
   </sheetData>
@@ -26956,28 +26956,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.2749268614015</v>
+        <v>163.7736798290458</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.56209930781</v>
+        <v>224.0823739268254</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.3751200055125</v>
+        <v>202.6962666609006</v>
       </c>
       <c r="AD2" t="n">
-        <v>139274.9268614015</v>
+        <v>163773.6798290458</v>
       </c>
       <c r="AE2" t="n">
-        <v>190562.09930781</v>
+        <v>224082.3739268254</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.634370349173398e-06</v>
+        <v>6.918701054336435e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.067057291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>172375.1200055125</v>
+        <v>202696.2666609006</v>
       </c>
     </row>
     <row r="3">
@@ -27062,28 +27062,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.2237088090386</v>
+        <v>119.5517800675396</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.2892793660153</v>
+        <v>163.5760197406354</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.8546534055095</v>
+        <v>147.96455399702</v>
       </c>
       <c r="AD3" t="n">
-        <v>95223.7088090386</v>
+        <v>119551.7800675396</v>
       </c>
       <c r="AE3" t="n">
-        <v>130289.2793660153</v>
+        <v>163576.0197406354</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.973152673157853e-06</v>
+        <v>8.917383502779588e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.485026041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>117854.6534055095</v>
+        <v>147964.55399702</v>
       </c>
     </row>
     <row r="4">
@@ -27168,28 +27168,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.36519309323616</v>
+        <v>104.6977249078494</v>
       </c>
       <c r="AB4" t="n">
-        <v>120.9051555873005</v>
+        <v>143.2520461564935</v>
       </c>
       <c r="AC4" t="n">
-        <v>109.3661372295318</v>
+        <v>129.580271926866</v>
       </c>
       <c r="AD4" t="n">
-        <v>88365.19309323616</v>
+        <v>104697.7249078494</v>
       </c>
       <c r="AE4" t="n">
-        <v>120905.1555873005</v>
+        <v>143252.0461564935</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.435814914847484e-06</v>
+        <v>9.608096911117926e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.087890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>109366.1372295318</v>
+        <v>129580.271926866</v>
       </c>
     </row>
     <row r="5">
@@ -27274,28 +27274,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>76.10567994185168</v>
+        <v>100.5190025463733</v>
       </c>
       <c r="AB5" t="n">
-        <v>104.1311488420358</v>
+        <v>137.5345338693052</v>
       </c>
       <c r="AC5" t="n">
-        <v>94.19301814556346</v>
+        <v>124.4084309877862</v>
       </c>
       <c r="AD5" t="n">
-        <v>76105.67994185167</v>
+        <v>100519.0025463733</v>
       </c>
       <c r="AE5" t="n">
-        <v>104131.1488420358</v>
+        <v>137534.5338693052</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.688578627575702e-06</v>
+        <v>9.985450560910426e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>94193.01814556346</v>
+        <v>124408.4309877862</v>
       </c>
     </row>
     <row r="6">
@@ -27380,28 +27380,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>74.53117987835792</v>
+        <v>98.94450248287953</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.9768483931243</v>
+        <v>135.3802334203937</v>
       </c>
       <c r="AC6" t="n">
-        <v>92.24432110791572</v>
+        <v>122.4597339501385</v>
       </c>
       <c r="AD6" t="n">
-        <v>74531.17987835791</v>
+        <v>98944.50248287953</v>
       </c>
       <c r="AE6" t="n">
-        <v>101976.8483931243</v>
+        <v>135380.2334203937</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.768674135271427e-06</v>
+        <v>1.010502600089244e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.840494791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>92244.32110791572</v>
+        <v>122459.7339501385</v>
       </c>
     </row>
   </sheetData>
